--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -72,19 +72,19 @@
     <t xml:space="preserve">ReportPath</t>
   </si>
   <si>
-    <t xml:space="preserve">Data/Reportes/Reporte_{0}.xlsx</t>
+    <t xml:space="preserve">Data/Reportes/ConsolidadoFakeStore_{0}.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">Form_URL</t>
   </si>
   <si>
-    <t xml:space="preserve">https://submit.jotform.com/252556762766066</t>
+    <t xml:space="preserve">https://form.jotform.com/252556762766066</t>
   </si>
   <si>
     <t xml:space="preserve">Colaborador</t>
   </si>
   <si>
-    <t xml:space="preserve">Jonathan Bustos</t>
+    <t xml:space="preserve">Jonathan Alejandro Bustos</t>
   </si>
   <si>
     <t xml:space="preserve">RefreshTokenAPI</t>
@@ -93,16 +93,16 @@
     <t xml:space="preserve">M.C507_BAY.0.U.-CvWDgCWAu3f3VCVp4BPq3KDaq7kvLYz!5VjEa!eEv8S2gjcUI2vjgpUGbfPHTcX5QeziepsN9xZacS2nbzIEWCmK3rE9zFsBBv2VMYJJ*bVwAuNKiZSNl3MyZku9lH51lGd6O9p41bh0QfwaDEMWjCMaUmTtXEhdRMz3fVYUVWq1E7wIt3fFsCPKEmNy20drwF27LIzy44MfSDRQCaSfaoceqyn35FJly6uUqgFUWoeneo!etXMF1ee8n9R3iiSNV4yms1xr4s!B8PNC79pCwue4cdAPqNAdECbB9eMwCh0lSKhXax356F03WYRcJ8b7XhrwjAZejIZQEjj9*O7qZx3JWNGOyKoM*XQQEoc6E0sSg9woj4uTh0O117JO2B6z6d!9W4ISJIjECtVhyDpqe17j33JCLsLZqREZOEJfalXe</t>
   </si>
   <si>
+    <t xml:space="preserve">StrClientIDTokenGraph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">956fa16a-1327-4c36-82a2-331538f896fb</t>
+  </si>
+  <si>
     <t xml:space="preserve">StrEndPointTokenGraph</t>
   </si>
   <si>
     <t xml:space="preserve">https://login.microsoftonline.com/common/oauth2/v2.0/token</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StrClientIDTokenGraph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">956fa16a-1327-4c36-82a2-331538f896fb</t>
   </si>
   <si>
     <t xml:space="preserve">MaxRetryNumber</t>
@@ -245,6 +245,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -258,10 +262,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -351,113 +351,113 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1048576"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -465,20 +465,18 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="https://fakestoreapi.com/products"/>
     <hyperlink ref="B4" r:id="rId2" display="localhost"/>
-    <hyperlink ref="B9" r:id="rId3" display="https://submit.jotform.com/252556762766066"/>
+    <hyperlink ref="B9" r:id="rId3" display="https://form.jotform.com/252556762766066"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -498,53 +496,53 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J19" activeCellId="0" sqref="J19"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="35.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="31"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -579,13 +577,13 @@
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
